--- a/output/锂离子蓄电池出口.xlsx
+++ b/output/锂离子蓄电池出口.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月金额</t>
+          <t>2024年1-7月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月占比</t>
+          <t>2024年1-7月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.393853798875376</v>
       </c>
       <c r="H2" t="n">
-        <v>61.51</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.322362559614276</v>
+        <v>0.3097838717174065</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0.3191839937230286</v>
       </c>
       <c r="H3" t="n">
-        <v>69.19</v>
+        <v>76.98</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3626120224306902</v>
+        <v>0.3577968858935626</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         <v>0.1431672551327318</v>
       </c>
       <c r="H4" t="n">
-        <v>21.8</v>
+        <v>24.46</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1142497772653425</v>
+        <v>0.1136881245642575</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>0.02989407610827775</v>
       </c>
       <c r="H5" t="n">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0222734657512709</v>
+        <v>0.0227748082732977</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -654,10 +654,10 @@
         <v>0.02539557996599974</v>
       </c>
       <c r="H6" t="n">
-        <v>7.67</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04019705466170536</v>
+        <v>0.0397397164768766</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,10 +690,10 @@
         <v>0.01187393749182686</v>
       </c>
       <c r="H7" t="n">
-        <v>10.07</v>
+        <v>12.44</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05277501179183481</v>
+        <v>0.0578201254938415</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -726,10 +726,10 @@
         <v>0.01027854060415849</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01268277343954719</v>
+        <v>0.01301417615617011</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         <v>0.009493919183993723</v>
       </c>
       <c r="H9" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004297468686127561</v>
+        <v>0.003950732047408784</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -798,10 +798,10 @@
         <v>0.008735451811167777</v>
       </c>
       <c r="H10" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006079345946229233</v>
+        <v>0.005949337671392051</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         <v>0.004472342094939192</v>
       </c>
       <c r="H11" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006184162255646978</v>
+        <v>0.005670462468045549</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -870,10 +870,10 @@
         <v>0.00326925591735321</v>
       </c>
       <c r="H12" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0009433467847597086</v>
+        <v>0.001022542412270509</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         <v>0.003060023538642605</v>
       </c>
       <c r="H13" t="n">
-        <v>0.72</v>
+        <v>0.99</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003773387139038834</v>
+        <v>0.004601440855217289</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -938,10 +938,10 @@
         <v>0.003033869491303779</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003144489282532362</v>
+        <v>0.003160585637927027</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>0.002955407349287302</v>
       </c>
       <c r="H15" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002148734343063781</v>
+        <v>0.003021148036253776</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>0.002850791159932</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002934856663696871</v>
+        <v>0.002695793632349523</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1046,10 +1046,10 @@
         <v>0.002693866875899045</v>
       </c>
       <c r="H17" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001991509878937162</v>
+        <v>0.001998605623983267</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1082,10 +1082,10 @@
         <v>0.002641558781221394</v>
       </c>
       <c r="H18" t="n">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003511346365494471</v>
+        <v>0.003811294445735532</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1118,10 +1118,10 @@
         <v>0.002458480449849614</v>
       </c>
       <c r="H19" t="n">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003406530056076726</v>
+        <v>0.00343946084127353</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.002380018307833137</v>
       </c>
       <c r="H20" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0007861223206330905</v>
+        <v>0.00111550081338601</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         <v>0.001386164508957761</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001257795713012945</v>
+        <v>0.001254938415059261</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>0.00115077808290833</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002620407735443635</v>
+        <v>0.0003718336044620032</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1262,10 +1262,10 @@
         <v>0.001098469988230679</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001572244641266181</v>
+        <v>0.001580292818963514</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
         <v>0.0009153916568588988</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.000232396002788752</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1334,10 +1334,10 @@
         <v>0.0008107754675035962</v>
       </c>
       <c r="H25" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001205387558304072</v>
+        <v>0.001347896816174762</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1348,20 +1348,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>瑞典</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0005010020040080161</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003543446592385527</v>
+        <v>0.0007480609472813891</v>
       </c>
       <c r="F26" t="n">
         <v>0.3</v>
@@ -1370,10 +1370,10 @@
         <v>0.0007846214201647704</v>
       </c>
       <c r="H26" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00251559142602589</v>
+        <v>0.002045084824541017</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1384,20 +1384,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01402805611222445</v>
+        <v>0.0005010020040080161</v>
       </c>
       <c r="D27" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0007480609472813891</v>
+        <v>0.0003543446592385527</v>
       </c>
       <c r="F27" t="n">
         <v>0.3</v>
@@ -1406,10 +1406,10 @@
         <v>0.0007846214201647704</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002096326188354908</v>
+        <v>0.002277480827329769</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1442,10 +1442,10 @@
         <v>0.0007323133254871192</v>
       </c>
       <c r="H28" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00136261202243069</v>
+        <v>0.001347896816174762</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1456,14 +1456,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.0005010020040080161</v>
       </c>
       <c r="D29" t="n">
         <v>0.06</v>
@@ -1478,10 +1478,10 @@
         <v>0.000653851183470642</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0.000464792005577504</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1492,14 +1492,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005010020040080161</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0.06</v>
@@ -1514,10 +1514,10 @@
         <v>0.000653851183470642</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0004716733923798543</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1550,10 +1550,10 @@
         <v>0.0005492349941153393</v>
       </c>
       <c r="H31" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="I31" t="n">
-        <v>0.007651590587495414</v>
+        <v>0.008226818498721821</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1564,20 +1564,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.00250501002004008</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0003149730304342691</v>
+        <v>0.001063033977715658</v>
       </c>
       <c r="F32" t="n">
         <v>0.19</v>
@@ -1586,10 +1586,10 @@
         <v>0.0004969268994376879</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0002096326188354908</v>
+        <v>0.000232396002788752</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>立陶宛</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0007874325760856728</v>
+        <v>0.0003149730304342691</v>
       </c>
       <c r="F33" t="n">
         <v>0.19</v>
@@ -1622,34 +1622,34 @@
         <v>0.0004969268994376879</v>
       </c>
       <c r="H33" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0005764897017975997</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00250501002004008</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001063033977715658</v>
+        <v>0.0007874325760856728</v>
       </c>
       <c r="F34" t="n">
         <v>0.19</v>
@@ -1658,34 +1658,34 @@
         <v>0.0004969268994376879</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0001048163094177454</v>
+        <v>0.0007901464094817568</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>爱尔兰</t>
+          <t>墨西哥</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.00651302605210421</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0006693176896728219</v>
+        <v>0.001181148864128509</v>
       </c>
       <c r="F35" t="n">
         <v>0.18</v>
@@ -1694,34 +1694,34 @@
         <v>0.0004707728520988623</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0001572244641266181</v>
+        <v>0.001905647222867766</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>墨西哥</t>
+          <t>爱尔兰</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00651302605210421</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001181148864128509</v>
+        <v>0.0006693176896728219</v>
       </c>
       <c r="F36" t="n">
         <v>0.18</v>
@@ -1730,14 +1730,14 @@
         <v>0.0004707728520988623</v>
       </c>
       <c r="H36" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001886693569519417</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>巴拿马</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1790,10 +1790,10 @@
         <v>0.002004008016032064</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E38" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0.0001181148864128509</v>
       </c>
       <c r="F38" t="n">
         <v>0.16</v>
@@ -1802,21 +1802,21 @@
         <v>0.0004184647574212109</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0003144489282532362</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>智利</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1826,10 +1826,10 @@
         <v>0.002004008016032064</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0001181148864128509</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F39" t="n">
         <v>0.16</v>
@@ -1838,14 +1838,14 @@
         <v>0.0004184647574212109</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0001048163094177454</v>
+        <v>0.0004183128050197536</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
@@ -1874,30 +1874,30 @@
         <v>0.0003923107100823852</v>
       </c>
       <c r="H40" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0008385304753419633</v>
+        <v>0.0008366256100395071</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.005511022044088178</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002362297728257018</v>
+        <v>0.001181148864128509</v>
       </c>
       <c r="F41" t="n">
         <v>0.14</v>
@@ -1906,14 +1906,14 @@
         <v>0.0003661566627435596</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0002096326188354908</v>
+        <v>0.0003718336044620032</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
         <v>0.09</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0004716733923798543</v>
+        <v>0.0004183128050197536</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1956,20 +1956,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>津巴布韦</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.005511022044088178</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001181148864128509</v>
+        <v>0.0002362297728257018</v>
       </c>
       <c r="F43" t="n">
         <v>0.14</v>
@@ -1978,14 +1978,14 @@
         <v>0.0003661566627435596</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0003668570829621089</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2028,20 +2028,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>黎巴嫩</t>
+          <t>新西兰</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.0005010020040080161</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0005118311744556873</v>
+        <v>0.0009055474624985237</v>
       </c>
       <c r="F45" t="n">
         <v>0.11</v>
@@ -2053,31 +2053,31 @@
         <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0002620407735443635</v>
+        <v>0.000232396002788752</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>新西兰</t>
+          <t>黎巴嫩</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0005010020040080161</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0009055474624985237</v>
+        <v>0.0005118311744556873</v>
       </c>
       <c r="F46" t="n">
         <v>0.11</v>
@@ -2086,14 +2086,14 @@
         <v>0.0002876945207270825</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0002096326188354908</v>
+        <v>0.0003718336044620032</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -2122,10 +2122,10 @@
         <v>0.0002876945207270825</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0003668570829621089</v>
+        <v>0.0007436672089240064</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0001181148864128509</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0.07000000000000001</v>
@@ -2158,21 +2158,21 @@
         <v>0.0001830783313717798</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0001572244641266181</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.0001181148864128509</v>
       </c>
       <c r="F49" t="n">
         <v>0.07000000000000001</v>
@@ -2194,14 +2194,14 @@
         <v>0.0001830783313717798</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I49" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0.0001394376016732512</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
         <v>0.01</v>
       </c>
       <c r="I50" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2266,10 +2266,10 @@
         <v>0.0001307702366941284</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0002620407735443635</v>
+        <v>0.0002788752033465024</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>布隆迪</t>
+          <t>赞比亚</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0002756014016299855</v>
       </c>
       <c r="F52" t="n">
         <v>0.04</v>
@@ -2341,7 +2341,7 @@
         <v>0.01</v>
       </c>
       <c r="I53" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>赞比亚</t>
+          <t>布隆迪</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0002756014016299855</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0.04</v>
@@ -2421,20 +2421,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001002004008016032</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F56" t="n">
         <v>0.03</v>
@@ -2443,21 +2443,17 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+        <v>0.0005577504066930048</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2467,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>7.874325760856728e-05</v>
       </c>
       <c r="F57" t="n">
         <v>0.03</v>
@@ -2479,34 +2475,30 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+        <v>0.0001394376016732512</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>塞内加尔</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.002004008016032064</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0.03</v>
@@ -2515,12 +2507,16 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H58" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0006288978565064724</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2550,7 +2546,7 @@
         <v>0.01</v>
       </c>
       <c r="I59" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2561,20 +2557,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>吉布提</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>7.874325760856728e-05</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0.03</v>
@@ -2583,12 +2579,16 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0001572244641266181</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2615,10 +2615,10 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0002620407735443635</v>
+        <v>0.0002788752033465024</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2629,20 +2629,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>巴西</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.003507014028056113</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.0003937162880428364</v>
       </c>
       <c r="F62" t="n">
         <v>0.02</v>
@@ -2651,14 +2651,14 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I62" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>刚果民主共和国</t>
+          <t>乌克兰</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.0001574865152171346</v>
       </c>
       <c r="F64" t="n">
         <v>0.02</v>
@@ -2723,34 +2723,34 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.003507014028056113</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0003937162880428364</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F65" t="n">
         <v>0.02</v>
@@ -2759,21 +2759,21 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0001048163094177454</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>以色列</t>
+          <t>刚果民主共和国</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2795,21 +2795,21 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.003144489282532362</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>以色列</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2819,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0.02</v>
@@ -2831,21 +2831,21 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03</v>
+        <v>1.09</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0001572244641266181</v>
+        <v>0.005066232860794794</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2867,21 +2867,21 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0001048163094177454</v>
+        <v>0.0001394376016732512</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>阿尔及利亚</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0001181148864128509</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0.02</v>
@@ -2903,21 +2903,21 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0001572244641266181</v>
+        <v>9.29584011155008e-05</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>乌克兰</t>
+          <t>哥伦比亚</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0001574865152171346</v>
+        <v>0.0001181148864128509</v>
       </c>
       <c r="F70" t="n">
         <v>0.02</v>
@@ -2939,14 +2939,14 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I70" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
         <v>0.01</v>
       </c>
       <c r="I71" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -2989,20 +2989,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0001181148864128509</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F72" t="n">
         <v>0.01</v>
@@ -3011,10 +3011,10 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>0.02</v>
+        <v>0.79</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0001048163094177454</v>
+        <v>0.003671856844062282</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>马拉维</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F74" t="n">
         <v>0.01</v>
@@ -3097,7 +3097,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>也门</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3119,21 +3119,21 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H75" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0002096326188354908</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>也门</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3155,10 +3155,10 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I76" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3169,20 +3169,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起)</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>0.0001181148864128509</v>
       </c>
       <c r="F77" t="n">
         <v>0.01</v>
@@ -3191,17 +3191,21 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0.004229607250755286</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3211,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0003149730304342691</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0.01</v>
@@ -3223,21 +3227,21 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I78" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0.0001394376016732512</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>马拉维</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3247,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0.01</v>
@@ -3259,21 +3263,21 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>亚美尼亚(2023年起)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3295,21 +3299,17 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0001572244641266181</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E81" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0.0003149730304342691</v>
       </c>
       <c r="F81" t="n">
         <v>0.01</v>
@@ -3331,10 +3331,10 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0001048163094177454</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3345,20 +3345,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.001503006012024048</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.0003543446592385527</v>
       </c>
       <c r="F82" t="n">
         <v>0.01</v>
@@ -3367,34 +3367,34 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>9.29584011155008e-05</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.001503006012024048</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0003543446592385527</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0.01</v>
@@ -3403,10 +3403,10 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3446,14 +3446,14 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>突尼斯</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3482,21 +3482,21 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0005010020040080161</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>苏丹</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>马绍尔群岛</t>
+          <t>马里</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3583,21 +3583,21 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.0001394376016732512</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>马尔代夫</t>
+          <t>马绍尔群岛</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3626,14 +3626,14 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>阿塞拜疆(2023年起停用)</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3655,17 +3655,21 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0.0001394376016732512</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>阿塞拜疆(2023年起)</t>
+          <t>马尔代夫</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3692,19 +3696,23 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>贝宁</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.0005010020040080161</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3719,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3733,7 +3741,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>中非</t>
+          <t>莫桑比克</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3755,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>0.0001394376016732512</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -3769,7 +3777,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>玻利维亚</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3791,21 +3799,21 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0001572244641266181</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3827,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0001048163094177454</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -3841,7 +3849,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>特立尼达和多巴哥</t>
+          <t>阿塞拜疆(2023年起停用)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3868,16 +3876,12 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>玻利维亚</t>
+          <t>阿塞拜疆(2023年起)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3904,11 +3908,7 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3949,20 +3949,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>葡萄牙</t>
+          <t>贝宁</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.001503006012024048</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0005118311744556873</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3971,21 +3971,21 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0001572244641266181</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>科摩罗</t>
+          <t>中非</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -4007,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I100" t="n">
-        <v>0.000524081547088727</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4043,21 +4043,21 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0001572244641266181</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4079,21 +4079,21 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>9.29584011155008e-05</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>科摩罗</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4115,34 +4115,34 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I103" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0.000464792005577504</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.001503006012024048</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>0.0005118311744556873</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4151,21 +4151,21 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.0001394376016732512</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4190,18 +4190,18 @@
         <v>0.01</v>
       </c>
       <c r="I105" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>海地</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4211,33 +4211,33 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.01</v>
       </c>
-      <c r="E106" t="n">
-        <v>3.937162880428364e-05</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>海地</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4247,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4273,7 +4273,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4302,14 +4302,14 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4338,14 +4338,14 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>圣文森特和格林纳丁斯</t>
+          <t>塞拉利昂</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4374,14 +4374,14 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>圣多美和普林西比</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4410,21 +4410,21 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>喀麦隆</t>
+          <t>圣多美和普林西比</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.001503006012024048</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -4453,14 +4453,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>喀麦隆</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>0.001503006012024048</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -4482,14 +4482,14 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>吉尔吉斯斯坦</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4525,7 +4525,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>吉尔吉斯斯坦</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4554,14 +4554,14 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4590,14 +4590,14 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4626,14 +4626,14 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4662,14 +4662,14 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>北马里亚纳群岛(2023年起增列)</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4696,12 +4696,16 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>北马里亚纳群岛(2023年起增列)</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4723,28 +4727,24 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0001572244641266181</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>利比里亚</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.001503006012024048</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>0.0001859168022310016</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -4773,14 +4773,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>刚果共和国</t>
+          <t>利比里亚</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.001503006012024048</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>列支敦士登</t>
+          <t>刚果共和国</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4838,14 +4838,14 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>列支敦士登</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4874,14 +4874,14 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>几内亚</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4939,10 +4939,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0009433467847597086</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>伯利兹</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4975,21 +4975,21 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>0.0008366256100395071</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>伯利兹</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -5018,14 +5018,14 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5061,7 +5061,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>委内瑞拉</t>
+          <t>多哥</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -5090,14 +5090,14 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>委内瑞拉</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -5107,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5126,14 +5126,14 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -5143,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -5155,21 +5155,21 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0002620407735443635</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>格鲁吉亚(2023年起)</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -5191,17 +5191,21 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0.000232396002788752</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>格鲁吉亚(2023年起)</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -5228,16 +5232,12 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -5264,19 +5264,23 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0005010020040080161</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -5296,29 +5300,25 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>0.0005010020040080161</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -5351,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>拉脱维亚</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -5413,7 +5413,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>中国澳门</t>
+          <t>拉脱维亚</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -5442,14 +5442,14 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>库拉索</t>
+          <t>中国澳门</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -5478,14 +5478,14 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>库拉索</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -5514,14 +5514,14 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>巴拉圭</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -5550,14 +5550,14 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>巴布亚新几内亚</t>
+          <t>巴拉圭</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5579,21 +5579,21 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>5.24081547088727e-05</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>巴哈马</t>
+          <t>巴布亚新几内亚</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -5615,21 +5615,21 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>4.64792005577504e-05</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>巴哈马</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -5651,21 +5651,21 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0001048163094177454</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>尼加拉瓜</t>
+          <t>尼泊尔</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5687,21 +5687,21 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>9.29584011155008e-05</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>密克罗尼西亚联邦</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5730,14 +5730,14 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>安道尔</t>
+          <t>密克罗尼西亚联邦</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5747,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5766,14 +5766,14 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>安哥拉</t>
+          <t>安道尔</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5783,10 +5783,10 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -5802,41 +5802,77 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>安哥拉</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>黑山</t>
         </is>
       </c>
-      <c r="B151" t="n">
-        <v>0</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr">
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>欧洲</t>
         </is>

--- a/output/锂离子蓄电池出口.xlsx
+++ b/output/锂离子蓄电池出口.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月金额</t>
+          <t>2024年1-8月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月占比</t>
+          <t>2024年1-8月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.393853798875376</v>
       </c>
       <c r="H2" t="n">
-        <v>66.65000000000001</v>
+        <v>79.02</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3097838717174065</v>
+        <v>0.3278974231295904</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0.3191839937230286</v>
       </c>
       <c r="H3" t="n">
-        <v>76.98</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3577968858935626</v>
+        <v>0.3330428648491639</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         <v>0.1431672551327318</v>
       </c>
       <c r="H4" t="n">
-        <v>24.46</v>
+        <v>27.07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1136881245642575</v>
+        <v>0.112328312378107</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>0.02989407610827775</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>5.85</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0227748082732977</v>
+        <v>0.02427486617701979</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -654,10 +654,10 @@
         <v>0.02539557996599974</v>
       </c>
       <c r="H6" t="n">
-        <v>8.550000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0397397164768766</v>
+        <v>0.04410971409602058</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,10 +690,10 @@
         <v>0.01187393749182686</v>
       </c>
       <c r="H7" t="n">
-        <v>12.44</v>
+        <v>13.94</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0578201254938415</v>
+        <v>0.05784472384746255</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -726,10 +726,10 @@
         <v>0.01027854060415849</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01301417615617011</v>
+        <v>0.01228266733059463</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         <v>0.009493919183993723</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003950732047408784</v>
+        <v>0.00394207228515706</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -798,10 +798,10 @@
         <v>0.008735451811167777</v>
       </c>
       <c r="H10" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005949337671392051</v>
+        <v>0.005767874185650856</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>1.22</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005670462468045549</v>
+        <v>0.005062450724096435</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -870,10 +870,10 @@
         <v>0.00326925591735321</v>
       </c>
       <c r="H12" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001022542412270509</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         <v>0.003060023538642605</v>
       </c>
       <c r="H13" t="n">
-        <v>0.99</v>
+        <v>1.16</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004601440855217289</v>
+        <v>0.004813477737665463</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -938,10 +938,10 @@
         <v>0.003033869491303779</v>
       </c>
       <c r="H14" t="n">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003160585637927027</v>
+        <v>0.003361135316818125</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>0.002955407349287302</v>
       </c>
       <c r="H15" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003021148036253776</v>
+        <v>0.00286318934395618</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>0.002850791159932</v>
       </c>
       <c r="H16" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002695793632349523</v>
+        <v>0.002655711855263704</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1046,10 +1046,10 @@
         <v>0.002693866875899045</v>
       </c>
       <c r="H17" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001998605623983267</v>
+        <v>0.002074774886924769</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1082,10 +1082,10 @@
         <v>0.002641558781221394</v>
       </c>
       <c r="H18" t="n">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003811294445735532</v>
+        <v>0.004108054276111042</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1118,10 +1118,10 @@
         <v>0.002458480449849614</v>
       </c>
       <c r="H19" t="n">
-        <v>0.74</v>
+        <v>0.98</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00343946084127353</v>
+        <v>0.004066558778372547</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.002380018307833137</v>
       </c>
       <c r="H20" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00111550081338601</v>
+        <v>0.001120378438939375</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         <v>0.001386164508957761</v>
       </c>
       <c r="H21" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001254938415059261</v>
+        <v>0.001327855927631852</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>0.00115077808290833</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0003718336044620032</v>
+        <v>0.0003734594796464583</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1262,10 +1262,10 @@
         <v>0.001098469988230679</v>
       </c>
       <c r="H23" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001580292818963514</v>
+        <v>0.001742810905016805</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>0.05</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000232396002788752</v>
+        <v>0.0002074774886924769</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001347896816174762</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1348,20 +1348,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01402805611222445</v>
+        <v>0.0005010020040080161</v>
       </c>
       <c r="D26" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0007480609472813891</v>
+        <v>0.0003543446592385527</v>
       </c>
       <c r="F26" t="n">
         <v>0.3</v>
@@ -1370,10 +1370,10 @@
         <v>0.0007846214201647704</v>
       </c>
       <c r="H26" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002045084824541017</v>
+        <v>0.002116270384663264</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1384,20 +1384,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>瑞典</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005010020040080161</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0003543446592385527</v>
+        <v>0.0007480609472813891</v>
       </c>
       <c r="F27" t="n">
         <v>0.3</v>
@@ -1406,10 +1406,10 @@
         <v>0.0007846214201647704</v>
       </c>
       <c r="H27" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002277480827329769</v>
+        <v>0.002323747873355741</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1442,10 +1442,10 @@
         <v>0.0007323133254871192</v>
       </c>
       <c r="H28" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001347896816174762</v>
+        <v>0.001327855927631852</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1478,10 +1478,10 @@
         <v>0.000653851183470642</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000464792005577504</v>
+        <v>0.0006224324660774306</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1550,10 +1550,10 @@
         <v>0.0005492349941153393</v>
       </c>
       <c r="H31" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="I31" t="n">
-        <v>0.008226818498721821</v>
+        <v>0.008548072534130046</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1586,10 +1586,10 @@
         <v>0.0004969268994376879</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000232396002788752</v>
+        <v>0.0002904684841694676</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0003149730304342691</v>
+        <v>0.0007874325760856728</v>
       </c>
       <c r="F33" t="n">
         <v>0.19</v>
@@ -1622,21 +1622,21 @@
         <v>0.0004969268994376879</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0.0007054234615544214</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>立陶宛</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0007874325760856728</v>
+        <v>0.0003149730304342691</v>
       </c>
       <c r="F34" t="n">
         <v>0.19</v>
@@ -1658,14 +1658,14 @@
         <v>0.0004969268994376879</v>
       </c>
       <c r="H34" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0007901464094817568</v>
+        <v>0.0002904684841694676</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
@@ -1694,10 +1694,10 @@
         <v>0.0004707728520988623</v>
       </c>
       <c r="H35" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001905647222867766</v>
+        <v>0.001867297398232292</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>0.0004707728520988623</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0.0002074774886924769</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>0.0004184647574212109</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0.0002074774886924769</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1838,10 +1838,10 @@
         <v>0.0004184647574212109</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0004183128050197536</v>
+        <v>0.0004564504751234491</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1874,30 +1874,30 @@
         <v>0.0003923107100823852</v>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0008366256100395071</v>
+        <v>0.001037387443462384</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>巴基斯坦</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.005511022044088178</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001181148864128509</v>
+        <v>0.0003543446592385527</v>
       </c>
       <c r="F41" t="n">
         <v>0.14</v>
@@ -1906,10 +1906,10 @@
         <v>0.0003661566627435596</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0003718336044620032</v>
+        <v>0.0005809369683389353</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>津巴布韦</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0003543446592385527</v>
+        <v>0.0002362297728257018</v>
       </c>
       <c r="F42" t="n">
         <v>0.14</v>
@@ -1942,34 +1942,34 @@
         <v>0.0003661566627435596</v>
       </c>
       <c r="H42" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0004183128050197536</v>
+        <v>0.0001659819909539815</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.005511022044088178</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0002362297728257018</v>
+        <v>0.001181148864128509</v>
       </c>
       <c r="F43" t="n">
         <v>0.14</v>
@@ -1978,14 +1978,14 @@
         <v>0.0003661566627435596</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0.000331963981907963</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -2014,10 +2014,10 @@
         <v>0.0003138485680659082</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>8.299099547699075e-05</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>0.0002876945207270825</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000232396002788752</v>
+        <v>0.0002489729864309722</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>0.08</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0003718336044620032</v>
+        <v>0.000331963981907963</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2122,10 +2122,10 @@
         <v>0.0002876945207270825</v>
       </c>
       <c r="H47" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0007436672089240064</v>
+        <v>0.000788414457031412</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.0001181148864128509</v>
       </c>
       <c r="F48" t="n">
         <v>0.07000000000000001</v>
@@ -2158,21 +2158,21 @@
         <v>0.0001830783313717798</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I48" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>0.0001244864932154861</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0001181148864128509</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0.07000000000000001</v>
@@ -2194,14 +2194,14 @@
         <v>0.0001830783313717798</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0001394376016732512</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
         <v>0.01</v>
       </c>
       <c r="I50" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2266,10 +2266,10 @@
         <v>0.0001307702366941284</v>
       </c>
       <c r="H51" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0002788752033465024</v>
+        <v>0.0002904684841694676</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>赞比亚</t>
+          <t>布隆迪</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0002756014016299855</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0.04</v>
@@ -2316,20 +2316,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>挪威</t>
+          <t>赞比亚</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0001574865152171346</v>
+        <v>0.0002756014016299855</v>
       </c>
       <c r="F53" t="n">
         <v>0.04</v>
@@ -2338,14 +2338,14 @@
         <v>0.0001046161893553027</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
@@ -2385,20 +2385,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>布隆迪</t>
+          <t>挪威</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0001574865152171346</v>
       </c>
       <c r="F55" t="n">
         <v>0.04</v>
@@ -2407,34 +2407,34 @@
         <v>0.0001046161893553027</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>吉布提</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002004008016032064</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0.03</v>
@@ -2443,12 +2443,16 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0005577504066930048</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2478,27 +2482,27 @@
         <v>0.03</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0001394376016732512</v>
+        <v>0.0001244864932154861</v>
       </c>
       <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>捷克</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.02805611222444891</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.0007480609472813891</v>
       </c>
       <c r="F58" t="n">
         <v>0.03</v>
@@ -2507,28 +2511,28 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.0002489729864309722</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>哥斯达黎加</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0005010020040080161</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="D59" t="n">
         <v>0.01</v>
@@ -2543,34 +2547,30 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="I59" t="n">
-        <v>4.64792005577504e-05</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
+        <v>0.0005394414706004399</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001002004008016032</v>
+        <v>0.0005010020040080161</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F60" t="n">
         <v>0.03</v>
@@ -2579,34 +2579,34 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>捷克</t>
+          <t>塞内加尔</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02805611222444891</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0007480609472813891</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0.03</v>
@@ -2615,14 +2615,14 @@
         <v>7.846214201647704e-05</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0002788752033465024</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
         <v>0.04</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0.0001659819909539815</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>0.01</v>
       </c>
       <c r="I64" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>刚果民主共和国</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0.02</v>
@@ -2759,10 +2759,10 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>刚果民主共和国</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2795,14 +2795,14 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.0002074774886924769</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -2831,10 +2831,10 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H67" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="I67" t="n">
-        <v>0.005066232860794794</v>
+        <v>0.005186937217311921</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>阿尔及利亚</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2867,21 +2867,21 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0001394376016732512</v>
+        <v>8.299099547699075e-05</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>哥伦比亚</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.0001181148864128509</v>
       </c>
       <c r="F69" t="n">
         <v>0.02</v>
@@ -2903,21 +2903,21 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I69" t="n">
-        <v>9.29584011155008e-05</v>
+        <v>0.0001659819909539815</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0001181148864128509</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F70" t="n">
         <v>0.02</v>
@@ -2942,11 +2942,11 @@
         <v>0.04</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0.0001659819909539815</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
@@ -2975,10 +2975,10 @@
         <v>5.230809467765137e-05</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I71" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>8.299099547699075e-05</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -2989,20 +2989,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E72" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0.0001181148864128509</v>
       </c>
       <c r="F72" t="n">
         <v>0.01</v>
@@ -3011,10 +3011,10 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>0.79</v>
+        <v>1.09</v>
       </c>
       <c r="I72" t="n">
-        <v>0.003671856844062282</v>
+        <v>0.004523009253495996</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3025,20 +3025,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>爱沙尼亚</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
         <v>0.01</v>
       </c>
-      <c r="C73" t="n">
-        <v>0.0005010020040080161</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3.937162880428364e-05</v>
       </c>
       <c r="F73" t="n">
         <v>0.01</v>
@@ -3047,10 +3047,10 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.004149549773849537</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3097,14 +3097,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.0005010020040080161</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3126,14 +3126,14 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>也门</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3155,34 +3155,34 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H76" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>也门</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0001181148864128509</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0.01</v>
@@ -3191,14 +3191,14 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H77" t="n">
-        <v>0.91</v>
+        <v>0.04</v>
       </c>
       <c r="I77" t="n">
-        <v>0.004229607250755286</v>
+        <v>0.0001659819909539815</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
         <v>0.03</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0001394376016732512</v>
+        <v>0.0001244864932154861</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>0.01</v>
       </c>
       <c r="I79" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起)</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3287,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.0003149730304342691</v>
       </c>
       <c r="F80" t="n">
         <v>0.01</v>
@@ -3299,17 +3299,21 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0.0001244864932154861</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3319,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0003149730304342691</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0.01</v>
@@ -3331,10 +3335,10 @@
         <v>2.615404733882568e-05</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3370,7 +3374,7 @@
         <v>0.02</v>
       </c>
       <c r="I82" t="n">
-        <v>9.29584011155008e-05</v>
+        <v>8.299099547699075e-05</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3381,7 +3385,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3410,14 +3414,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>亚美尼亚(2023年起)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3444,11 +3448,7 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3489,7 +3489,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>特立尼达和多巴哥</t>
+          <t>莫桑比克</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3511,21 +3511,21 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.0001244864932154861</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>马里</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.0001244864932154861</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>马绍尔群岛</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3583,21 +3583,21 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0001394376016732512</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>马绍尔群岛</t>
+          <t>苏丹</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3626,14 +3626,14 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>马尔代夫</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3655,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0001394376016732512</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>马尔代夫</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3691,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.0001244864932154861</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>约旦</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>7.874325760856728e-05</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0001394376016732512</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>约旦</t>
+          <t>贝宁</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3923,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>7.874325760856728e-05</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3935,21 +3935,21 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>贝宁</t>
+          <t>中非</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3974,7 +3974,7 @@
         <v>0.01</v>
       </c>
       <c r="I99" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>中非</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -4007,21 +4007,21 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4043,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.0002904684841694676</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4079,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>9.29584011155008e-05</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I103" t="n">
-        <v>0.000464792005577504</v>
+        <v>0.0004979459728619444</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -4151,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0001394376016732512</v>
+        <v>0.0001659819909539815</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>0.01</v>
       </c>
       <c r="I105" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>0.01</v>
       </c>
       <c r="I106" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4302,14 +4302,14 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>塞拉利昂</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4331,21 +4331,21 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4374,14 +4374,14 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>圣文森特和格林纳丁斯</t>
+          <t>圣多美和普林西比</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4410,21 +4410,21 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>圣多美和普林西比</t>
+          <t>喀麦隆</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.001503006012024048</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -4453,14 +4453,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>喀麦隆</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.001503006012024048</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -4482,14 +4482,14 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>吉尔吉斯斯坦</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4525,7 +4525,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>吉尔吉斯斯坦</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4554,14 +4554,14 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4590,14 +4590,14 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4626,14 +4626,14 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>南苏丹</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4655,21 +4655,21 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>8.299099547699075e-05</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>4.149549773849537e-05</v>
       </c>
       <c r="J120" t="inlineStr"/>
     </row>
@@ -4762,7 +4762,7 @@
         <v>0.04</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0001859168022310016</v>
+        <v>0.0001659819909539815</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>0.18</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0008366256100395071</v>
+        <v>0.0007469189592929166</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>委内瑞拉</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -5126,14 +5126,14 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>库拉索</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -5143,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>3.937162880428364e-05</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
@@ -5194,7 +5194,7 @@
         <v>0.05</v>
       </c>
       <c r="I133" t="n">
-        <v>0.000232396002788752</v>
+        <v>0.0002074774886924769</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>库拉索</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -5514,14 +5514,14 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>委内瑞拉</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
@@ -5615,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I145" t="n">
-        <v>4.64792005577504e-05</v>
+        <v>8.299099547699075e-05</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>0.02</v>
       </c>
       <c r="I147" t="n">
-        <v>9.29584011155008e-05</v>
+        <v>8.299099547699075e-05</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -5845,34 +5845,70 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>孟加拉国</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.937162880428364e-05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>黑山</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr">
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>欧洲</t>
         </is>
